--- a/Excel-Documents/Sort_Time.xlsx
+++ b/Excel-Documents/Sort_Time.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztben\workspace\FedExTrips\Excel-Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8A2AF6-8024-4E3E-ABC7-E100E9B38C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8B94F0-80E1-44BB-B169-08AA8F19F69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="21600" windowHeight="12670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="21600" windowHeight="12670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sort_times" sheetId="10" r:id="rId1"/>
-    <sheet name="Temp_Aggregate" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId1"/>
+    <sheet name="Temp_Aggregate" sheetId="11" r:id="rId2"/>
+    <sheet name="sort_times" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>Flight 1460</t>
   </si>
@@ -154,6 +155,24 @@
   </si>
   <si>
     <t>+35</t>
+  </si>
+  <si>
+    <t>Aircraft Strike</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes-explanation: </t>
+  </si>
+  <si>
+    <t>Total payload = 69,050</t>
+  </si>
+  <si>
+    <t>Heavyweight = 12,318</t>
+  </si>
+  <si>
+    <t>Express = 56,732</t>
   </si>
 </sst>
 </file>
@@ -488,10 +507,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A124CBDC-9178-402E-9A1B-3F9E1E72219D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDDBD8E-A1A5-4034-8FCC-4A10EEDDCABD}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.27430555555555558</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.28125</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.28819444444444442</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35EED6F-4B95-49CD-8BC5-FCB784CBB8AB}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -557,22 +913,24 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -580,9 +938,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -773,40 +1129,38 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DB478F-ADB8-4E2E-8AD8-7D38A2EE4591}">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>27</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
